--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\2nd Trimester\CM1601 [PRO] Programming Fundamentals\CW\fx\src\PointsTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{BB3FA75C-8C49-4C7F-8AB9-B4B5B67CA17F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E88CCA59-1D83-4301-ACBD-934BA854CE4F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="7995" windowWidth="15375" xWindow="1170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1620"/>
+    <workbookView windowHeight="9017" windowWidth="16663" xWindow="-103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="343"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -467,16 +467,16 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.69140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,41 +493,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1.0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -612,38 +612,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="n">
+        <v>1.0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="n">
+        <v>1.0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\2nd Trimester\CM1601 [PRO] Programming Fundamentals\CW\fx\src\PointsTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{E88CCA59-1D83-4301-ACBD-934BA854CE4F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{401BE11B-05A0-4EB6-9C49-8E33F09B283F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="9017" windowWidth="16663" xWindow="-103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="343"/>
+    <workbookView windowHeight="7995" windowWidth="9210" xWindow="225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -37,31 +37,31 @@
     <t>Group B</t>
   </si>
   <si>
-    <t>Mumbai_India</t>
-  </si>
-  <si>
-    <t>Chennai_SouthAfrica</t>
-  </si>
-  <si>
-    <t>Delhi_NewZealand</t>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata_England                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punjab_Pakistan                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunrisers_SriLanka              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajastan_Australia              </t>
   </si>
   <si>
     <t>RoyalChallengers_Bangladesh</t>
   </si>
   <si>
-    <t>Rajastan_Australia</t>
-  </si>
-  <si>
-    <t>Kolkata_England</t>
-  </si>
-  <si>
-    <t>Punjab_Pakistan</t>
-  </si>
-  <si>
-    <t>Sunrisers_SriLanka</t>
-  </si>
-  <si>
-    <t>Matches</t>
+    <t xml:space="preserve">Delhi_NewZealand                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai_SouthAfrica             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai_India                       </t>
   </si>
 </sst>
 </file>
@@ -464,24 +464,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.69140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -493,156 +493,156 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="n">
+        <v>2.0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E10" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IIT\1st Year\2nd Trimester\CM1601 [PRO] Programming Fundamentals\CW\fx\src\PointsTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{401BE11B-05A0-4EB6-9C49-8E33F09B283F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{48FA3464-DFB9-42FA-866D-AAB21FD37500}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="7995" windowWidth="9210" xWindow="225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1710"/>
+    <workbookView windowHeight="12855" windowWidth="21600" xWindow="2340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -55,13 +55,13 @@
     <t>RoyalChallengers_Bangladesh</t>
   </si>
   <si>
-    <t xml:space="preserve">Delhi_NewZealand                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chennai_SouthAfrica             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai_India                       </t>
+    <t xml:space="preserve">Delhi_NewZealand                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennai_SouthAfrica              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai_India                         </t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>6.0</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.0</v>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.0</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,14 +531,14 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.0</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -548,17 +548,17 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.0</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6.0</v>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,50 +583,50 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.0</v>
+      <c r="B8">
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.0</v>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>3.0</v>
+      <c r="B9">
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.0</v>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,16 +634,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C10" t="n">
         <v>1.0</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -497,17 +497,17 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
+      <c r="E2" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -548,14 +548,14 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="n">
+        <v>1.0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="n">
+        <v>1.0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,17 +616,17 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="B9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -514,14 +514,14 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="n">
+        <v>1.0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1.0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,13 +583,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
         <v>4.0</v>
@@ -599,17 +599,17 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="B8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E9" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,16 +634,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -498,16 +498,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>4.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,13 +515,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -531,17 +531,17 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -549,13 +549,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="n">
         <v>2.0</v>
@@ -600,16 +600,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,16 +617,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C9" t="n">
         <v>4.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
       <c r="D9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/PointsTable/points_table.xlsx
+++ b/src/PointsTable/points_table.xlsx
@@ -515,13 +515,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -549,16 +549,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
         <v>2.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -583,16 +583,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="n">
         <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" t="n">
         <v>8.0</v>
